--- a/Estudo Excel.xlsx
+++ b/Estudo Excel.xlsx
@@ -12,33 +12,54 @@
     <sheet name="Orçamento" sheetId="3" r:id="rId3"/>
     <sheet name="Cadastro Novo" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Orçamento!$D$2:$E$8</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Medida X</t>
-  </si>
-  <si>
-    <t>Medida Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altura </t>
-  </si>
-  <si>
-    <t>Peças</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Fruta</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Uva</t>
+  </si>
+  <si>
+    <t>Pêra</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>Maçã</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Cereja</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Amarela</t>
+  </si>
+  <si>
+    <t>Vermelha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +67,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,14 +106,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,40 +465,86 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="C3:F4"/>
+  <dimension ref="C2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:6">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="3:8">
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:F3"/>
-  </mergeCells>
+  <autoFilter ref="D2:E8"/>
+  <sortState ref="G3:H8">
+    <sortCondition ref="H3:H8"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
